--- a/data/trans_bre/P16A09-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A09-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>49,84%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1142,63%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-1,55; 4,94</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 5,16</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 5,11</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-44,39; 285,35</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,76; 607,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>455,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>159,92%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,72; 7,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 4,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 3,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,0; 2,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>129,03; 1639,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,38; 295,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,73; 435,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,2; 1439,87</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>275,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>148,02%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 3,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,72; 7,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 3,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,63; 4,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,84; 867,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,94; 1073,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,89; 298,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,55; 622,51</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>146,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,45%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 4,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 5,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 5,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; 4,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,85; 434,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,61; 292,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,69; 671,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,41; 232,46</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>130,91%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>162,32%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>457,33%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-0,37; 10,75</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 11,04</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,93; 9,84</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 4,66</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-16,98; 436,4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3,76; 552,76</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,78; —</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>155,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>140,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,86%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 4,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,36; 7,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 6,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 5,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,56; 477,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,95; 757,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,21; 857,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,26; 344,33</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,12%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>271,73%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>124,88%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,21%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; 2,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,64; 5,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 3,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 3,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,96; 72,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>69,79; 872,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,46; 476,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,26; 201,79</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,01</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>344,04%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>707,89%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>362,02%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 4,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,88; 6,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,89; 4,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,97; 12,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,68; 153,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>137,29; 884,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>80,17; 3825,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>198,18; 630,16</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,48%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>179,24%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>185,11%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>185,73%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,2; 3,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,84; 4,84</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,73; 3,23</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,68; 4,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,95; 124,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>112,6; 278,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>106,21; 296,68</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>120,09; 276,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A09-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1142,63%</t>
+          <t>1247,27%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 5,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 5,11</t>
+          <t>1,72; 4,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,88; 861,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>159,92%</t>
+          <t>169,9%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 2,43</t>
+          <t>0,08; 2,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,2; 1439,87</t>
+          <t>-18,82; 1503,65</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>148,02%</t>
+          <t>151,04%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 4,88</t>
+          <t>0,65; 4,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,55; 622,51</t>
+          <t>11,72; 628,03</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>112,84%</t>
+          <t>123,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,45%</t>
+          <t>13,8%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,33</t>
+          <t>1,12; 7,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 4,31</t>
+          <t>-3,27; 3,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,61; 292,06</t>
+          <t>11,18; 380,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,41; 232,46</t>
+          <t>-58,25; 177,83</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>457,33%</t>
+          <t>458,4%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,66</t>
+          <t>0,97; 4,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,78; —</t>
+          <t>15,34; —</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>111,86%</t>
+          <t>114,01%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,54</t>
+          <t>0,64; 5,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,26; 344,33</t>
+          <t>10,23; 350,53</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>71,21%</t>
+          <t>56,13%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 3,41</t>
+          <t>-1,19; 3,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 201,79</t>
+          <t>-33,38; 177,81</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9,01</t>
+          <t>9,58</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>362,02%</t>
+          <t>484,06%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,97; 12,13</t>
+          <t>7,48; 12,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>198,18; 630,16</t>
+          <t>242,32; 1294,36</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>185,73%</t>
+          <t>190,69%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,68; 4,51</t>
+          <t>2,28; 4,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>120,09; 276,24</t>
+          <t>116,92; 307,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A09-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 4,94</t>
+          <t>-1,26; 5,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 5,34</t>
+          <t>-1,18; 4,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 5,16</t>
+          <t>-0,83; 5,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,93</t>
+          <t>1,71; 5,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-44,39; 285,35</t>
+          <t>-35,84; 316,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-50,88; 861,15</t>
+          <t>-54,5; 527,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-34,76; 607,96</t>
+          <t>-45,13; 536,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,14</t>
+          <t>2,49; 6,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,9</t>
+          <t>-0,37; 4,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 3,5</t>
+          <t>-0,17; 3,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,43</t>
+          <t>-0,14; 2,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>129,03; 1639,39</t>
+          <t>102,56; 1581,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 295,78</t>
+          <t>-15,76; 269,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 435,82</t>
+          <t>-16,04; 486,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 1503,65</t>
+          <t>-28,36; 1032,14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 3,17</t>
+          <t>-0,67; 3,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 7,52</t>
+          <t>1,96; 7,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 3,89</t>
+          <t>-1,35; 3,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,85</t>
+          <t>0,54; 5,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-47,84; 867,41</t>
+          <t>-51,19; 588,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>41,94; 1073,16</t>
+          <t>50,97; 1334,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-42,89; 298,0</t>
+          <t>-46,73; 251,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,72; 628,03</t>
+          <t>1,39; 480,55</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 4,79</t>
+          <t>-0,44; 4,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 7,7</t>
+          <t>0,88; 7,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,14; 5,03</t>
+          <t>0,05; 4,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 3,17</t>
+          <t>-3,28; 3,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 434,67</t>
+          <t>-21,89; 473,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,18; 380,05</t>
+          <t>7,52; 332,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 671,82</t>
+          <t>-16,98; 603,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-58,25; 177,83</t>
+          <t>-56,49; 163,85</t>
         </is>
       </c>
     </row>
@@ -1068,32 +1068,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 10,75</t>
+          <t>0,21; 11,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,25; 11,04</t>
+          <t>0,99; 10,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,93; 9,84</t>
+          <t>2,99; 10,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,72</t>
+          <t>1,18; 4,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 436,4</t>
+          <t>-9,68; 471,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,76; 552,76</t>
+          <t>12,17; 553,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,34; —</t>
+          <t>24,06; —</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,51</t>
+          <t>-1,12; 4,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 7,2</t>
+          <t>0,48; 7,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 6,25</t>
+          <t>0,16; 6,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,64; 5,49</t>
+          <t>0,84; 5,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,56; 477,35</t>
+          <t>-46,04; 491,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 757,03</t>
+          <t>2,49; 692,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 857,01</t>
+          <t>-18,57; 792,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,23; 350,53</t>
+          <t>15,91; 347,5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 2,05</t>
+          <t>-2,59; 1,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,55</t>
+          <t>1,69; 5,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,76</t>
+          <t>0,18; 3,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,01</t>
+          <t>-1,18; 3,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-46,96; 72,65</t>
+          <t>-50,18; 68,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>69,79; 872,65</t>
+          <t>72,76; 759,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,46; 476,39</t>
+          <t>1,88; 446,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-33,38; 177,81</t>
+          <t>-35,77; 183,61</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,19; 4,94</t>
+          <t>0,4; 4,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,75</t>
+          <t>2,68; 6,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,84</t>
+          <t>1,89; 4,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,48; 12,53</t>
+          <t>7,4; 12,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,68; 153,93</t>
+          <t>6,82; 143,63</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>137,29; 884,81</t>
+          <t>113,39; 854,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>80,17; 3825,23</t>
+          <t>89,26; 3486,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>242,32; 1294,36</t>
+          <t>240,47; 1342,05</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,14</t>
+          <t>1,14; 3,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,84; 4,84</t>
+          <t>2,84; 4,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,73; 3,23</t>
+          <t>1,72; 3,27</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,18</t>
+          <t>2,32; 4,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>34,95; 124,09</t>
+          <t>32,77; 123,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>112,6; 278,51</t>
+          <t>112,72; 268,35</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>106,21; 296,68</t>
+          <t>107,08; 320,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>116,92; 307,02</t>
+          <t>112,42; 307,66</t>
         </is>
       </c>
     </row>
